--- a/input/scenario_parametricMatching.xlsx
+++ b/input/scenario_parametricMatching.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\labsim\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\labsim_Italy\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4766C62D-9FA1-4F97-9E91-0CF5DA755FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ED52B4-73E9-4B31-A6C4-F4775F2E76A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="4050" windowWidth="27750" windowHeight="11130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UK" sheetId="1" r:id="rId1"/>
-    <sheet name="IT" sheetId="2" r:id="rId2"/>
+    <sheet name="IT" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Parameter</t>
   </si>
@@ -363,80 +362,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>6.51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>29.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>17.309999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>5.34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F776AA79-ABB4-4A2A-AA34-CAA220F4565A}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -452,7 +385,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -460,7 +393,7 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -468,7 +401,7 @@
         <v>29.95</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -476,7 +409,7 @@
         <v>17.309999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
